--- a/data/efspi_risw_fees.xlsx
+++ b/data/efspi_risw_fees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M335337\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13986F0D-187B-4C1A-B9DA-11211E506034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D1FED-D1D3-4024-8673-A64887399FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4093DE5-314D-4883-A888-03763535C7A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C4093DE5-314D-4883-A888-03763535C7A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -443,23 +443,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A45267-0D05-4985-A464-5BFAA948A13D}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,7 +499,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -519,7 +519,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -559,7 +559,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -579,7 +579,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -599,7 +599,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -619,7 +619,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -659,7 +659,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -679,7 +679,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -699,7 +699,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -719,7 +719,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
@@ -739,7 +739,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -759,7 +759,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -779,7 +779,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -799,7 +799,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>6</v>
       </c>
@@ -859,7 +859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
@@ -879,7 +879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>7</v>
       </c>
@@ -899,7 +899,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7</v>
       </c>
@@ -939,7 +939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>7</v>
       </c>
@@ -959,7 +959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>8</v>
       </c>
@@ -979,7 +979,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -999,7 +999,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>10</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>10</v>
       </c>
@@ -1197,6 +1197,86 @@
       </c>
       <c r="F37">
         <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>2026</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>2026</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>2026</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>2026</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
